--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hp-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hp-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgam</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.128414</v>
+        <v>0.1238986666666667</v>
       </c>
       <c r="H2">
-        <v>0.385242</v>
+        <v>0.371696</v>
       </c>
       <c r="I2">
-        <v>0.0205607169378674</v>
+        <v>0.01923905185495286</v>
       </c>
       <c r="J2">
-        <v>0.0205607169378674</v>
+        <v>0.01923905185495286</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N2">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O2">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P2">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q2">
-        <v>0.07513468896266669</v>
+        <v>0.003376651662222222</v>
       </c>
       <c r="R2">
-        <v>0.6762122006640001</v>
+        <v>0.03038986496</v>
       </c>
       <c r="S2">
-        <v>0.0002586188355830756</v>
+        <v>1.363896090183849E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002586188355830756</v>
+        <v>1.363896090183849E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.128414</v>
+        <v>0.1238986666666667</v>
       </c>
       <c r="H3">
-        <v>0.385242</v>
+        <v>0.371696</v>
       </c>
       <c r="I3">
-        <v>0.0205607169378674</v>
+        <v>0.01923905185495286</v>
       </c>
       <c r="J3">
-        <v>0.0205607169378674</v>
+        <v>0.01923905185495286</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N3">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O3">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P3">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q3">
-        <v>5.898224012824</v>
+        <v>4.759711745845333</v>
       </c>
       <c r="R3">
-        <v>53.08401611541601</v>
+        <v>42.837405712608</v>
       </c>
       <c r="S3">
-        <v>0.02030209810228432</v>
+        <v>0.01922541289405102</v>
       </c>
       <c r="T3">
-        <v>0.02030209810228432</v>
+        <v>0.01922541289405102</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,40 +667,40 @@
         <v>17.431555</v>
       </c>
       <c r="I4">
-        <v>0.930337990514708</v>
+        <v>0.9022604239955847</v>
       </c>
       <c r="J4">
-        <v>0.930337990514708</v>
+        <v>0.9022604239955845</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N4">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O4">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P4">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q4">
-        <v>3.399718782117779</v>
+        <v>0.1583559929777778</v>
       </c>
       <c r="R4">
-        <v>30.59746903906001</v>
+        <v>1.4252039368</v>
       </c>
       <c r="S4">
-        <v>0.01170206897613017</v>
+        <v>0.0006396310347790865</v>
       </c>
       <c r="T4">
-        <v>0.01170206897613017</v>
+        <v>0.0006396310347790862</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,10 +729,10 @@
         <v>17.431555</v>
       </c>
       <c r="I5">
-        <v>0.930337990514708</v>
+        <v>0.9022604239955847</v>
       </c>
       <c r="J5">
-        <v>0.930337990514708</v>
+        <v>0.9022604239955845</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N5">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O5">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P5">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q5">
-        <v>266.8847536921267</v>
+        <v>223.2178368393766</v>
       </c>
       <c r="R5">
-        <v>2401.96278322914</v>
+        <v>2008.96053155439</v>
       </c>
       <c r="S5">
-        <v>0.918635921538578</v>
+        <v>0.9016207929608057</v>
       </c>
       <c r="T5">
-        <v>0.9186359215385779</v>
+        <v>0.9016207929608054</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.306667</v>
+        <v>0.1062546666666667</v>
       </c>
       <c r="H6">
-        <v>0.9200010000000001</v>
+        <v>0.318764</v>
       </c>
       <c r="I6">
-        <v>0.04910129254742459</v>
+        <v>0.01649928200866351</v>
       </c>
       <c r="J6">
-        <v>0.0491012925474246</v>
+        <v>0.01649928200866351</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N6">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O6">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P6">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q6">
-        <v>0.1794300439213334</v>
+        <v>0.002895793848888889</v>
       </c>
       <c r="R6">
-        <v>1.614870395292</v>
+        <v>0.02606214464</v>
       </c>
       <c r="S6">
-        <v>0.0006176107157455966</v>
+        <v>1.16966815163834E-05</v>
       </c>
       <c r="T6">
-        <v>0.0006176107157455966</v>
+        <v>1.16966815163834E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.306667</v>
+        <v>0.1062546666666667</v>
       </c>
       <c r="H7">
-        <v>0.9200010000000001</v>
+        <v>0.318764</v>
       </c>
       <c r="I7">
-        <v>0.04910129254742459</v>
+        <v>0.01649928200866351</v>
       </c>
       <c r="J7">
-        <v>0.0491012925474246</v>
+        <v>0.01649928200866351</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N7">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O7">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P7">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q7">
-        <v>14.085618883772</v>
+        <v>4.081896912941333</v>
       </c>
       <c r="R7">
-        <v>126.770569953948</v>
+        <v>36.737072216472</v>
       </c>
       <c r="S7">
-        <v>0.048483681831679</v>
+        <v>0.01648758532714713</v>
       </c>
       <c r="T7">
-        <v>0.048483681831679</v>
+        <v>0.01648758532714713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3992853333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.197856</v>
+      </c>
+      <c r="I8">
+        <v>0.06200124214079897</v>
+      </c>
+      <c r="J8">
+        <v>0.06200124214079897</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.02725333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.08176</v>
+      </c>
+      <c r="O8">
+        <v>0.0007089206372884383</v>
+      </c>
+      <c r="P8">
+        <v>0.0007089206372884382</v>
+      </c>
+      <c r="Q8">
+        <v>0.01088185628444444</v>
+      </c>
+      <c r="R8">
+        <v>0.09793670656</v>
+      </c>
+      <c r="S8">
+        <v>4.395396009112999E-05</v>
+      </c>
+      <c r="T8">
+        <v>4.395396009112997E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3992853333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.197856</v>
+      </c>
+      <c r="I9">
+        <v>0.06200124214079897</v>
+      </c>
+      <c r="J9">
+        <v>0.06200124214079897</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>38.416166</v>
+      </c>
+      <c r="N9">
+        <v>115.248498</v>
+      </c>
+      <c r="O9">
+        <v>0.9992910793627116</v>
+      </c>
+      <c r="P9">
+        <v>0.9992910793627116</v>
+      </c>
+      <c r="Q9">
+        <v>15.33901164669867</v>
+      </c>
+      <c r="R9">
+        <v>138.051104820288</v>
+      </c>
+      <c r="S9">
+        <v>0.06195728818070784</v>
+      </c>
+      <c r="T9">
+        <v>0.06195728818070784</v>
       </c>
     </row>
   </sheetData>
